--- a/Office/testFile/CharacterStatus.xlsx
+++ b/Office/testFile/CharacterStatus.xlsx
@@ -1,249 +1,184 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="13160"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="26860" windowHeight="13160" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="characters" sheetId="1" r:id="rId1"/>
+    <sheet name="characters" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>姓名</t>
-  </si>
-  <si>
-    <t>力量</t>
-  </si>
-  <si>
-    <t>敏捷</t>
-  </si>
-  <si>
-    <t>耐力</t>
-  </si>
-  <si>
-    <t>幸运</t>
-  </si>
-  <si>
-    <t>成长</t>
-  </si>
-  <si>
-    <t>财富</t>
-  </si>
-  <si>
-    <t>平均值</t>
-  </si>
-  <si>
-    <t>kino</t>
-  </si>
-  <si>
-    <t>kirii</t>
-  </si>
-  <si>
-    <t>erms</t>
-  </si>
-  <si>
-    <t>shibo</t>
-  </si>
-  <si>
-    <t>kuroniko</t>
-  </si>
-  <si>
-    <t>kaiba</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="21">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <b val="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -565,157 +500,157 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -769,12 +704,994 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="10"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>CharacterStatus</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'characters'!B1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'characters'!$A$2:$A$7</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'characters'!$B$2:$B$7</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'characters'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'characters'!$A$2:$A$7</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'characters'!$C$2:$C$7</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <strRef>
+              <f>'characters'!D1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'characters'!$A$2:$A$7</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'characters'!$D$2:$D$7</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'characters'!E1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'characters'!$A$2:$A$7</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'characters'!$E$2:$E$7</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <strRef>
+              <f>'characters'!F1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'characters'!$A$2:$A$7</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'characters'!$F$2:$F$7</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="5"/>
+          <order val="5"/>
+          <tx>
+            <strRef>
+              <f>'characters'!G1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'characters'!$A$2:$A$7</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'characters'!$G$2:$G$7</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="6"/>
+          <order val="6"/>
+          <tx>
+            <strRef>
+              <f>'characters'!H1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'characters'!$A$2:$A$7</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'characters'!$H$2:$H$7</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Status</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Value</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="11"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Horizontal chart</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="bar"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'characters'!B1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'characters'!$A$2:$A$7</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'characters'!$B$2:$B$7</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'characters'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'characters'!$A$2:$A$7</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'characters'!$C$2:$C$7</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <strRef>
+              <f>'characters'!D1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'characters'!$A$2:$A$7</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'characters'!$D$2:$D$7</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'characters'!E1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'characters'!$A$2:$A$7</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'characters'!$E$2:$E$7</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <strRef>
+              <f>'characters'!F1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'characters'!$A$2:$A$7</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'characters'!$F$2:$F$7</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="5"/>
+          <order val="5"/>
+          <tx>
+            <strRef>
+              <f>'characters'!G1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'characters'!$A$2:$A$7</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'characters'!$G$2:$G$7</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="6"/>
+          <order val="6"/>
+          <tx>
+            <strRef>
+              <f>'characters'!H1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'characters'!$A$2:$A$7</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'characters'!$H$2:$H$7</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Status</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Value</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Kino PieChart</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <pieChart>
+        <varyColors val="1"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'characters'!A2</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <dPt>
+            <idx val="2"/>
+            <explosion val="20"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <cat>
+            <numRef>
+              <f>'characters'!$B$1:$H$1</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'characters'!$B$2:$H$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <firstSliceAng val="0"/>
+      </pieChart>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>3D BarChart</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <view3D>
+      <rotX val="15"/>
+      <rotY val="20"/>
+      <rAngAx val="1"/>
+    </view3D>
+    <floor/>
+    <sideWall/>
+    <backWall/>
+    <plotArea>
+      <bar3DChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'characters'!B1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'characters'!$A$2:$A$7</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'characters'!$B$2:$B$7</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'characters'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'characters'!$A$2:$A$7</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'characters'!$C$2:$C$7</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <strRef>
+              <f>'characters'!D1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'characters'!$A$2:$A$7</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'characters'!$D$2:$D$7</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'characters'!E1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'characters'!$A$2:$A$7</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'characters'!$E$2:$E$7</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <strRef>
+              <f>'characters'!F1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'characters'!$A$2:$A$7</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'characters'!$F$2:$F$7</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="5"/>
+          <order val="5"/>
+          <tx>
+            <strRef>
+              <f>'characters'!G1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'characters'!$A$2:$A$7</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'characters'!$G$2:$G$7</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="6"/>
+          <order val="6"/>
+          <tx>
+            <strRef>
+              <f>'characters'!H1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'characters'!$A$2:$A$7</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'characters'!$H$2:$H$7</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <gapDepth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+        <axId val="1000"/>
+      </bar3DChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+      <serAx>
+        <axId val="1000"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </serAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>9</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6480000" cy="3240000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>13</col>
+      <colOff>0</colOff>
+      <row>9</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6480000" cy="3240000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="2" name="Chart 2"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>26</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="3" name="Chart 3"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>13</col>
+      <colOff>0</colOff>
+      <row>26</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6480000" cy="3240000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="4" name="Chart 4"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1060,206 +1977,237 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6"/>
   <sheetData>
-    <row r="1" ht="17.55" customHeight="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>姓名</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>力量</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>敏捷</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>耐力</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>幸运</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>成长</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>财富</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>平均值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>kino</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
+      <c r="D2" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="H2" s="4">
+        <f>AVERAGE(B2:G2)</f>
+        <v/>
       </c>
     </row>
-    <row r="2" ht="17.55" customHeight="1" spans="1:8">
-      <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="2">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2">
-        <v>92</v>
-      </c>
-      <c r="D2" s="2">
-        <v>34</v>
-      </c>
-      <c r="E2" s="2">
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>kirii</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="F2" s="2">
-        <v>95</v>
-      </c>
-      <c r="G2" s="2">
+      <c r="F3" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="H3" s="4">
+        <f>AVERAGE(B3:G3)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>erms</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="H4" s="4">
+        <f>AVERAGE(B4:G4)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>shibo</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="H5" s="4">
+        <f>AVERAGE(B5:G5)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>kuroniko</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="C6" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="H2" s="4">
-        <f t="shared" ref="H2:H7" si="0">AVERAGE(B2:G2)</f>
-        <v>46</v>
+      <c r="D6" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="H6" s="4">
+        <f>AVERAGE(B6:G6)</f>
+        <v/>
       </c>
     </row>
-    <row r="3" ht="17.55" customHeight="1" spans="1:8">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2">
-        <v>48</v>
-      </c>
-      <c r="C3" s="2">
-        <v>26</v>
-      </c>
-      <c r="D3" s="2">
-        <v>37</v>
-      </c>
-      <c r="E3" s="2">
-        <v>38</v>
-      </c>
-      <c r="F3" s="2">
-        <v>85</v>
-      </c>
-      <c r="G3" s="2">
-        <v>35</v>
-      </c>
-      <c r="H3" s="4">
-        <f t="shared" si="0"/>
-        <v>44.8333333333333</v>
-      </c>
-    </row>
-    <row r="4" ht="17.55" customHeight="1" spans="1:8">
-      <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2">
-        <v>56</v>
-      </c>
-      <c r="C4" s="2">
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>kaiba</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="E7" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="D4" s="2">
-        <v>52</v>
-      </c>
-      <c r="E4" s="2">
-        <v>64</v>
-      </c>
-      <c r="F4" s="2">
-        <v>4</v>
-      </c>
-      <c r="G4" s="2">
-        <v>3</v>
-      </c>
-      <c r="H4" s="4">
-        <f t="shared" si="0"/>
-        <v>39.8333333333333</v>
-      </c>
-    </row>
-    <row r="5" ht="17.55" customHeight="1" spans="1:8">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2">
-        <v>72</v>
-      </c>
-      <c r="C5" s="2">
-        <v>38</v>
-      </c>
-      <c r="D5" s="2">
-        <v>72</v>
-      </c>
-      <c r="E5" s="2">
-        <v>74</v>
-      </c>
-      <c r="F5" s="2">
-        <v>29</v>
-      </c>
-      <c r="G5" s="2">
-        <v>15</v>
-      </c>
-      <c r="H5" s="4">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" ht="17.55" customHeight="1" spans="1:8">
-      <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2">
-        <v>74</v>
-      </c>
-      <c r="C6" s="2">
-        <v>45</v>
-      </c>
-      <c r="D6" s="2">
-        <v>74</v>
-      </c>
-      <c r="E6" s="2">
-        <v>59</v>
-      </c>
-      <c r="F6" s="2">
-        <v>53</v>
-      </c>
-      <c r="G6" s="2">
-        <v>65</v>
-      </c>
-      <c r="H6" s="4">
-        <f t="shared" si="0"/>
-        <v>61.6666666666667</v>
-      </c>
-    </row>
-    <row r="7" ht="17.55" customHeight="1" spans="1:8">
-      <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="2">
-        <v>53</v>
-      </c>
-      <c r="C7" s="2">
-        <v>42</v>
-      </c>
-      <c r="D7" s="2">
-        <v>74</v>
-      </c>
-      <c r="E7" s="2">
-        <v>56</v>
-      </c>
-      <c r="F7" s="2">
-        <v>6</v>
-      </c>
-      <c r="G7" s="2">
-        <v>91</v>
+      <c r="F7" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>80</v>
       </c>
       <c r="H7" s="4">
-        <f t="shared" si="0"/>
-        <v>53.6666666666667</v>
+        <f>AVERAGE(B7:G7)</f>
+        <v/>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Office/testFile/CharacterStatus.xlsx
+++ b/Office/testFile/CharacterStatus.xlsx
@@ -1323,15 +1323,6 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
-          <dPt>
-            <idx val="2"/>
-            <explosion val="20"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </dPt>
           <cat>
             <numRef>
               <f>'characters'!$B$1:$H$1</f>
@@ -1400,12 +1391,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'characters'!$A$2:$A$7</f>
+              <f>'characters'!$A$2:$A$3</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'characters'!$B$2:$B$7</f>
+              <f>'characters'!$B$2:$B$3</f>
             </numRef>
           </val>
         </ser>
@@ -1424,12 +1415,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'characters'!$A$2:$A$7</f>
+              <f>'characters'!$A$2:$A$3</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'characters'!$C$2:$C$7</f>
+              <f>'characters'!$C$2:$C$3</f>
             </numRef>
           </val>
         </ser>
@@ -1448,12 +1439,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'characters'!$A$2:$A$7</f>
+              <f>'characters'!$A$2:$A$3</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'characters'!$D$2:$D$7</f>
+              <f>'characters'!$D$2:$D$3</f>
             </numRef>
           </val>
         </ser>
@@ -1472,12 +1463,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'characters'!$A$2:$A$7</f>
+              <f>'characters'!$A$2:$A$3</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'characters'!$E$2:$E$7</f>
+              <f>'characters'!$E$2:$E$3</f>
             </numRef>
           </val>
         </ser>
@@ -1496,12 +1487,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'characters'!$A$2:$A$7</f>
+              <f>'characters'!$A$2:$A$3</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'characters'!$F$2:$F$7</f>
+              <f>'characters'!$F$2:$F$3</f>
             </numRef>
           </val>
         </ser>
@@ -1520,12 +1511,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'characters'!$A$2:$A$7</f>
+              <f>'characters'!$A$2:$A$3</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'characters'!$G$2:$G$7</f>
+              <f>'characters'!$G$2:$G$3</f>
             </numRef>
           </val>
         </ser>
@@ -1544,12 +1535,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'characters'!$A$2:$A$7</f>
+              <f>'characters'!$A$2:$A$3</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'characters'!$H$2:$H$7</f>
+              <f>'characters'!$H$2:$H$3</f>
             </numRef>
           </val>
         </ser>
@@ -1676,7 +1667,7 @@
       <row>26</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="6480000" cy="3240000"/>
+    <ext cx="5400000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="4" name="Chart 4"/>
@@ -1984,8 +1975,8 @@
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6"/>
